--- a/DOCS/BOM.xlsx
+++ b/DOCS/BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CDS Schematics\Keyb\Model K Pico-0.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shitty Code\git\Model-K-Pico\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B7253C-34ED-4E41-98FC-6F4701ED9777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4559E39A-F946-4781-8B13-9F5DFD88BA6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="37710" windowHeight="21840" xr2:uid="{582EDE5F-3147-4735-8365-ACE8F470E309}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Item</t>
   </si>
@@ -154,15 +154,9 @@
     <t>https://www.homedepot.com/p/Everbilt-M3-0-5-x-10-mm-Phillips-Pan-Head-Zinc-Plated-Machine-Screw-3-Pack-802708/204282658</t>
   </si>
   <si>
-    <t>M3 Screws 10mm /Nuts</t>
-  </si>
-  <si>
     <t>screws/nuts</t>
   </si>
   <si>
-    <t>9 screws 18 nuts. I live in the US so #4-40 1/2in also work</t>
-  </si>
-  <si>
     <t>https://www.ebay.com/itm/293487640349</t>
   </si>
   <si>
@@ -245,6 +239,18 @@
   </si>
   <si>
     <t>black pcb because color matching to green is hard</t>
+  </si>
+  <si>
+    <t>M2 Screws 10mm /Nuts</t>
+  </si>
+  <si>
+    <t>9 screws 18 nuts. I live in the US so #4-40 1/2in also work but you need to drill the holes larger</t>
+  </si>
+  <si>
+    <t>get 2 for peace of mind</t>
+  </si>
+  <si>
+    <t>get a second as a backup</t>
   </si>
 </sst>
 </file>
@@ -618,7 +624,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,6 +735,9 @@
       <c r="C8">
         <v>1</v>
       </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -740,6 +749,9 @@
       <c r="C9">
         <v>1</v>
       </c>
+      <c r="D9" t="s">
+        <v>70</v>
+      </c>
       <c r="E9" t="s">
         <v>30</v>
       </c>
@@ -749,7 +761,7 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -789,7 +801,7 @@
         <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -817,21 +829,21 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" t="s">
         <v>39</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
       </c>
       <c r="C15">
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
         <v>38</v>
@@ -839,97 +851,97 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
         <v>51</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" t="s">
         <v>55</v>
-      </c>
-      <c r="B20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -937,19 +949,19 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
         <v>66</v>
       </c>
-      <c r="B23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>68</v>
-      </c>
       <c r="E23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
